--- a/Batch/14/In_Class/Day_8.xlsx
+++ b/Batch/14/In_Class/Day_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\14\In_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7029C12D-E53F-41CD-A05A-21923BBA166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BF33C-A590-460C-9C5F-4427BA75FF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="2" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="911">
   <si>
     <t>Intro To excel</t>
   </si>
@@ -594,21 +594,9 @@
     <t>ROUND</t>
   </si>
   <si>
-    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/main/notes/Day8_Cleaning.xlsx</t>
-  </si>
-  <si>
     <t>Data Cleaning</t>
   </si>
   <si>
-    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/main/notes/Day8_Data_validation.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/main/notes/Day8_Date_functions.xlsx</t>
-  </si>
-  <si>
-    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/main/notes/Day8_Error.xlsx</t>
-  </si>
-  <si>
     <t>Date Functions</t>
   </si>
   <si>
@@ -15608,6 +15596,15 @@
       </rPr>
       <t xml:space="preserve"> in the "Not Contract" column to ensure that its value depends on the "Employment Status" column.</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/master/Batch/14/Curriculum/Day_8_Cleaning.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/master/Batch/14/Curriculum/Day_8_Date_functions.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/starlordali4444/Acciojob-Excel/blob/master/Batch/14/Curriculum/Day_8_Error.xlsx</t>
   </si>
 </sst>
 </file>
@@ -16731,7 +16728,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">82 282 5731,'0'0'6013,"-3"-12"-4608,0 5 2987,0 7-4388,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1-1,1 1 1,-1-1 0,-1 6-1,1-2-18,-1 0 0,1 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,1 1-1,-1-1 1,1 1 0,0 0-1,2 6 1,-2-11 11,1-1 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 1,1 0-1,-1 0 0,0 1 0,1-2 0,-1 1 0,0 0 1,0 0-1,2-2 0,3-10 5,0 0 1,0 0 0,-1-1-1,-1 1 1,0-1-1,-1 0 1,-1-1-1,0 1 1,-1 0-1,0-1 1,-3-27 0,1 37 7,0 0 1,0 0 0,0 0 0,-1 0-1,1 1 1,-1-1 0,0 1 0,-4-7 0,4 10-16,2 1-10,2 49 160,3 0 189,13 55 0,-4-25-150,-11-64 854,-3-32-789,-6-30-317,-1 7-99,2 0-1,1 1 1,3-59-1,1 80 107,4 14-199,4 11 176,6 11 84,1 8 76,-1 1 1,-2 1-1,0 0 0,10 40 0,-14-182-104,-7 108-11,0 0 1,0 0 0,1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,4-5 1,-5 10 30,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1-1,0 2 8,-1-1-1,0 1 0,1-1 0,-1 1 0,0 0 1,0 0-1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 1,0 0-1,-1 0 0,1 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 1 0,0 1 0,9 21 64,-2 0-1,0 1 0,-2 0 0,-1 0 1,4 38-1,-8-55-123,-1-7-45,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 1,0 1-1,0-1 0,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,0-1-321,0 1 0,1-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,1-2 1,6-14-4333</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="652.8">369 222 3330,'0'0'8598,"-1"-8"-8094,-1-12-393,1 17 16,5 12 288,1 5 42,12 42 1081,-12-37-1134,0-1 1,13 26-1,-16-40-380,-1-4 139,-4-14-98,2-1 1,0 0 0,1 1-1,2-26 1,1-4-501,1 19 314,-4 24 121,0 1 0,0 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,0 0-1,1 2 21,0 0 0,1 0 0,-1-1 0,0 1 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,-1 1 0,2 3 0,2 7 70,-2 0 1,1 0-1,-2 0 1,2 14-1,-1-9-296,-3-18 180,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,2-55-920,-3 42 869,1-1 0,0 1 0,0-1 0,7-20 0,-8 33 85,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 2 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,0 0-1,21 27 615,-8-4-203,-2 0 1,0 0-1,-2 1 0,11 44 0,-11 4-5600</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="652.79">369 222 3330,'0'0'8598,"-1"-8"-8094,-1-12-393,1 17 16,5 12 288,1 5 42,12 42 1081,-12-37-1134,0-1 1,13 26-1,-16-40-380,-1-4 139,-4-14-98,2-1 1,0 0 0,1 1-1,2-26 1,1-4-501,1 19 314,-4 24 121,0 1 0,0 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 0 0,0 0-1,1 2 21,0 0 0,1 0 0,-1-1 0,0 1 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,-1 1 0,2 3 0,2 7 70,-2 0 1,1 0-1,-2 0 1,2 14-1,-1-9-296,-3-18 180,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,2-55-920,-3 42 869,1-1 0,0 1 0,0-1 0,7-20 0,-8 33 85,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 2 1,0-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,0 0-1,21 27 615,-8-4-203,-2 0 1,0 0-1,-2 1 0,11 44 0,-11 4-5600</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1242.49">823 27 7555,'0'0'6222,"0"67"-4547,0-55-1475,5 188 1327,-2-166-1392,2 0-1,1 0 1,19 59-1,-25-93-244,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-774,0-16-3262,0 11 2500,0-7-3738</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2389.14">1123 268 5811,'0'0'9468,"-1"-4"-8323,0 3-1087,0 0 1,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 1 0,0 0 0,-1 1-46,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 5 0,0 0-16,0 0 0,1 1 1,0-1-1,1 0 1,0 12-1,0-19-3,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1-1,1-1-5,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,0-1-1,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 0,-1 0 1,0 0-1,0 0 1,0 0-1,1-5 0,0-4-8,1 0-1,-2-1 0,1-18 1,-2 11 43,1 4 32,-1 0 0,-1-1 0,0 1 0,-1 1 0,-8-32 0,14 105 643,1-38-826,1 0 1,1 0 0,18 35-1,-21-49-368,0 1 0,0-1 0,1 0 0,0 0 0,0-1 0,7 6 0,-9-8-146,0-1 0,0 1 0,0-1-1,1 0 1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 0 0,13 0-1363</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2841.08">1328 223 7075,'0'0'4760,"-11"-5"-2690,10 4-1937,-42-20 1843,41 20-1900,1 0-1,0 1 1,0-1 0,-1 1-1,1-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 2-1,1 1-48,0 0 0,-1 1-1,1-1 1,1 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,0 1 0,0-1-1,2 6 1,-2-8-32,0-1 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,1 0 0,-1 1-1,0-1 1,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1 0,2-2 0,0 0-15,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 1,-1 1-1,0-1 0,0-6 0,1-9 44,0 1 1,-2-1-1,-3-22 0,1 27 44,0-1 0,-2 1 1,1 0-1,-2 0 0,-13-25 0,19 39-41,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0 0 0,0-1 0,1 1 1,-1 0-1,-1 33 58,3-13-63,1 0 1,1 0-1,1 0 1,0-1-1,2 0 0,0 0 1,1 0-1,1-1 0,1 0 1,1-1-1,0 0 0,15 17 1,-24-33-211,0 0-1,0 0 1,-1 0 0,2-1 0,-1 1-1,0 0 1,0-1 0,0 1 0,1-1-1,-1 0 1,4 2 0,18 0-4780,-15-3 675</inkml:trace>
@@ -16822,7 +16819,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.5">506 106 6531,'0'0'5394,"3"27"-4481,-1-1-273,-2-2-416,3-2-32,-3-4-112,6-1-96,-6-3 16,2-1-576,-2-5-1057</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="776.4">446 146 9556,'0'0'8228,"-22"-57"-8228,50 43 0,3-2 32,5 3-96,-3 2-784,1 5-1441,-7 6-16,-4 0-1265,-7 0 32</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="777.4">703 56 4258,'0'0'11413,"0"68"-10580,0-42-33,0 1-320,0-2-128,0 1-304,0-4 0,2-5-48,1-1-304,5-9-1697,-2-7-1264,2 0-3634</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.14">706 41 10085,'0'0'2964,"13"-7"-2708,41-22-16,-51 28-211,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 1 0,1 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 1 0,-1-1 0,0 0-1,5 4 1,-1 0 78,1 0-1,-1 1 0,0 0 0,10 13 1,-12-15-67,-1 0-1,0 0 1,0 1 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,-1 0 0,0 0-1,0 0 1,-1 8 0,0-7 29,-1 0-1,1-1 1,-2 1 0,1-1-1,0 0 1,-1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1-1-1,-2 0 1,1 0 0,0 0-1,-6 4 1,-8 5-68,0 0 1,0-1-1,-1 0 0,-1-2 1,-40 16-1,50-25-2274,7-1-1886</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.13">706 41 10085,'0'0'2964,"13"-7"-2708,41-22-16,-51 28-211,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 1 0,1 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 1 0,-1-1 0,0 0-1,5 4 1,-1 0 78,1 0-1,-1 1 0,0 0 0,10 13 1,-12-15-67,-1 0-1,0 0 1,0 1 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,-1 0 0,0 0-1,0 0 1,-1 8 0,0-7 29,-1 0-1,1-1 1,-2 1 0,1-1-1,0 0 1,-1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1-1-1,-2 0 1,1 0 0,0 0-1,-6 4 1,-8 5-68,0 0 1,0-1-1,-1 0 0,-1-2 1,-40 16-1,50-25-2274,7-1-1886</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16853,7 +16850,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 156 8676,'0'0'8393,"-3"29"-7046,3 206 201,0-235-1728,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,7-10-5348</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.83">254 1 8852,'0'0'2665,"-2"10"-1707,-9 48 86,3 1 0,2 1 1,3-1-1,5 62 0,0-101-892,0 1 0,-2 0 0,0 0 0,-1 0 0,-1 0 1,-1 0-1,-8 29 0,5-27-593,6-11-1572,6-7-3769,4-5-109</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="738.2">414 136 5603,'0'0'10847,"1"14"-10236,13 135 2362,-6-62-4908,-2-66-5146</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109.63">538 174 3490,'0'0'14033,"-6"-5"-12982,3 11-935,1 1-1,-1-1 1,1 1 0,1 0 0,-1 0 0,1 0 0,0-1-1,0 1 1,1 13 0,0-13-55,0-1-34,0 0 1,0 0-1,1-1 1,0 1-1,0 0 0,0-1 1,1 1-1,0-1 1,5 11-1,-7-15-30,1 1 1,0-1-1,-1 0 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,3-2 1,0 0-7,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,-1-1 0,0 1 0,1-1 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0-1 1,0 1-1,0-5 0,-1 7 16,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1 0 1,1-1-1,-4 1 1,1 0-13,1 0 0,-1 0 1,1 0-1,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 1 1,-6 2-1,-7 13-1536,16-15 1085,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 3 0,1 2-5101</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1109.62">538 174 3490,'0'0'14033,"-6"-5"-12982,3 11-935,1 1-1,-1-1 1,1 1 0,1 0 0,-1 0 0,1 0 0,0-1-1,0 1 1,1 13 0,0-13-55,0-1-34,0 0 1,0 0-1,1-1 1,0 1-1,0 0 0,0-1 1,1 1-1,0-1 1,5 11-1,-7-15-30,1 1 1,0-1-1,-1 0 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,3-2 1,0 0-7,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,-1-1 0,0 1 0,1-1 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0-1 1,0 1-1,0-5 0,-1 7 16,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1 0 1,1-1-1,-4 1 1,1 0-13,1 0 0,-1 0 1,1 0-1,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 1 1,-6 2-1,-7 13-1536,16-15 1085,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 3 0,1 2-5101</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1501.56">747 77 12310,'0'0'6250,"0"-9"-5953,-2 161 171,4 181 499,-2-331-1341,3 17-1273,3-11-5998</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1919.95">833 271 11941,'0'0'1687,"5"-10"-668,16-34-283,-20 42-697,0 1 1,0-1-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 1 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 1 1,4 0-1,-5 0-35,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 2 0,-2 5 72,0 0 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1-1,-1-1 1,0 1 0,0-1 0,-11 12 0,-20 42 957,35-61-1023,0 0 1,-1 1-1,1-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,2 0-1,21 3 120,25-11-288,-1-15-1991,-19 1-3623,-14 8-700</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2294.83">1077 191 10085,'0'0'7822,"-4"9"-7409,-12 29-239,15-37-168,1 1 0,0 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 1,2 1-1,-1 0 18,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0-1-1,0 0 0,0 1 1,-1-1-1,1 0 1,0-1-1,-1 1 1,1 0-1,2-3 1,-3 2 20,-1 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-4-3 0,3 2-40,-1 0 1,0-1 0,0 2-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 1 0,0 0-1,0 0 1,-1 0-1,-3 0 1,6 18-5654,4-11 192,5-1-3095</inkml:trace>
@@ -17503,7 +17500,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -44586,19 +44583,19 @@
     </row>
     <row r="4" spans="2:5" ht="17.649999999999999">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C4" t="str" cm="1">
         <f t="array" ref="C4:C12">_xlfn.UNIQUE(B4:B12)</f>
         <v>Value</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" t="str">
         <v>Division By Zero</v>
@@ -44607,40 +44604,40 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" t="str">
         <v>Spill</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C7" t="str">
         <v>Name</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C8" t="str">
         <v>Ref</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" t="str">
         <v>NA</v>
@@ -44648,18 +44645,18 @@
     </row>
     <row r="10" spans="2:5" ht="17.649999999999999">
       <c r="B10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C10" t="str">
         <v>Calc</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" t="str">
         <v>Number</v>
@@ -44668,28 +44665,28 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C12" t="str">
         <v>Error</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="E13" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="E14" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="17.649999999999999">
       <c r="E16" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -44697,22 +44694,22 @@
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="5:5" ht="17.649999999999999">
       <c r="E22" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="5:5">
@@ -44720,22 +44717,22 @@
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="5:5" ht="17.649999999999999">
       <c r="E28" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -44743,22 +44740,22 @@
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="17.649999999999999">
       <c r="E34" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="5:5">
@@ -44766,22 +44763,22 @@
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="5:5" ht="17.649999999999999">
       <c r="E40" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="5:5">
@@ -44789,22 +44786,22 @@
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="5:5" ht="17.649999999999999">
       <c r="E46" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="5:5">
@@ -44812,22 +44809,22 @@
     </row>
     <row r="48" spans="5:5">
       <c r="E48" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="5:5" ht="17.649999999999999">
       <c r="E52" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="5:5">
@@ -44835,17 +44832,17 @@
     </row>
     <row r="54" spans="5:5">
       <c r="E54" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="5:5" ht="17.649999999999999">
       <c r="E57" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="5:5">
@@ -44853,12 +44850,12 @@
     </row>
     <row r="59" spans="5:5">
       <c r="E59" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -45354,7 +45351,7 @@
   <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -45373,10 +45370,10 @@
         <v>142</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>160</v>
+        <v>908</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -45397,15 +45394,15 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="14.25" customHeight="1">
       <c r="B6" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>162</v>
+        <v>909</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -45429,15 +45426,15 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
       <c r="C8" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>163</v>
+        <v>910</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -45461,37 +45458,15 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
       <c r="C10" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
@@ -45545,28 +45520,25 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="E4:L5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E6:L7"/>
     <mergeCell ref="E8:L9"/>
-    <mergeCell ref="E10:L11"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{2704F96D-15B6-4F84-9A9D-815A8A6371EE}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{1B0FD44A-E9E4-4196-BF1D-BCBF3E1A9C35}"/>
     <hyperlink ref="E8" r:id="rId3" xr:uid="{E0A932C2-01BA-4DE6-B5C8-E7A7618870AF}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{FF66B2B1-CFC7-4DAF-9E08-6BA3B9F76C7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -45582,7 +45554,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999">
       <c r="B2" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -45590,57 +45562,57 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="17.649999999999999">
       <c r="B17" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -45648,57 +45620,57 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="17.649999999999999">
       <c r="B32" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -45706,57 +45678,57 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="17.649999999999999">
       <c r="B47" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -45764,57 +45736,57 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="17.649999999999999">
       <c r="B60" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -45822,57 +45794,57 @@
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="17.649999999999999">
       <c r="B73" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -45880,52 +45852,52 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="17.649999999999999">
       <c r="B87" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="2:2">
@@ -45933,57 +45905,57 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="17.649999999999999">
       <c r="B102" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="2:2">
@@ -45991,57 +45963,57 @@
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="17.649999999999999">
       <c r="B117" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -46049,57 +46021,57 @@
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="17.649999999999999">
       <c r="B132" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="2:2">
@@ -46107,57 +46079,57 @@
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="17.649999999999999">
       <c r="B147" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="2:2">
@@ -46165,57 +46137,57 @@
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="17.649999999999999">
       <c r="B160" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="2:2">
@@ -46223,57 +46195,57 @@
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="17.649999999999999">
       <c r="B175" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="176" spans="2:2">
@@ -46281,57 +46253,57 @@
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="17.649999999999999">
       <c r="B190" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" spans="2:2">
@@ -46339,57 +46311,57 @@
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="205" spans="2:2" ht="17.649999999999999">
       <c r="B205" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="206" spans="2:2">
@@ -46397,57 +46369,57 @@
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="17.649999999999999">
       <c r="B220" s="10" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" spans="2:2">
@@ -46455,57 +46427,57 @@
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="235" spans="2:2" ht="17.649999999999999">
       <c r="B235" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="236" spans="2:2">
@@ -46513,57 +46485,57 @@
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="250" spans="2:2" ht="17.649999999999999">
       <c r="B250" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="251" spans="2:2">
@@ -46571,57 +46543,57 @@
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="17.649999999999999">
       <c r="B265" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="266" spans="2:2">
@@ -46629,57 +46601,57 @@
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="280" spans="2:2" ht="17.649999999999999">
       <c r="B280" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="281" spans="2:2">
@@ -46687,57 +46659,57 @@
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" s="11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" s="11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="295" spans="2:2" ht="17.649999999999999">
       <c r="B295" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="296" spans="2:2">
@@ -46745,57 +46717,57 @@
     </row>
     <row r="297" spans="2:2">
       <c r="B297" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" s="11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="17.649999999999999">
       <c r="B310" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="311" spans="2:2">
@@ -46803,57 +46775,57 @@
     </row>
     <row r="312" spans="2:2">
       <c r="B312" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="320" spans="2:2">
       <c r="B320" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="325" spans="2:2" ht="17.649999999999999">
       <c r="B325" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="326" spans="2:2">
@@ -46861,57 +46833,57 @@
     </row>
     <row r="327" spans="2:2">
       <c r="B327" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="340" spans="2:2" ht="17.649999999999999">
       <c r="B340" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="341" spans="2:2">
@@ -46919,57 +46891,57 @@
     </row>
     <row r="342" spans="2:2">
       <c r="B342" s="11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" s="11" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="355" spans="2:2" ht="17.649999999999999">
       <c r="B355" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="356" spans="2:2">
@@ -46977,52 +46949,52 @@
     </row>
     <row r="357" spans="2:2">
       <c r="B357" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="360" spans="2:2">
       <c r="B360" s="11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="362" spans="2:2">
       <c r="B362" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="363" spans="2:2">
       <c r="B363" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="364" spans="2:2">
       <c r="B364" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="366" spans="2:2">
       <c r="B366" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -47042,1652 +47014,1652 @@
   <sheetData>
     <row r="1" spans="2:2" ht="17.649999999999999">
       <c r="B1" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="13" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="13" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="13" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="13" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="13" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="13" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="13" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="13" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="17.649999999999999">
       <c r="B12" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="13" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="13" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="13" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="13" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="13" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="13" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="13" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="17.649999999999999">
       <c r="B23" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="13" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="13" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="13" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="13" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="13" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="13" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="13" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17.649999999999999">
       <c r="B34" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="11" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="17.649999999999999">
       <c r="B45" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="11" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="11" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="11" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="17.649999999999999">
       <c r="B56" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="11" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="11" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="17.649999999999999">
       <c r="B67" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="11" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="11" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="11" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="17.649999999999999">
       <c r="B78" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="11" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="17.649999999999999">
       <c r="B89" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="11" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="11" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="17.649999999999999">
       <c r="B100" s="10" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="11" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="11" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" spans="2:2" ht="17.649999999999999">
       <c r="B111" s="10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="11" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="17.649999999999999">
       <c r="B122" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="11" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="11" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="11" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="17.649999999999999">
       <c r="B133" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="17.649999999999999">
       <c r="B144" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="11" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="17.649999999999999">
       <c r="B155" s="10" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="17.649999999999999">
       <c r="B166" s="10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="11" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="17.649999999999999">
       <c r="B177" s="10" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="17.649999999999999">
       <c r="B188" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="199" spans="2:2" ht="17.649999999999999">
       <c r="B199" s="10" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="11" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="11" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="11" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="17.649999999999999">
       <c r="B210" s="10" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="11" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="11" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="221" spans="2:2" ht="17.649999999999999">
       <c r="B221" s="10" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="232" spans="2:2" ht="17.649999999999999">
       <c r="B232" s="10" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="11" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="11" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" s="11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="243" spans="2:2" ht="17.649999999999999">
       <c r="B243" s="10" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="11" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" s="11" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="11" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="11" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="11" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="254" spans="2:2" ht="17.649999999999999">
       <c r="B254" s="10" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="11" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="11" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" s="11" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" s="11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="11" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="17.649999999999999">
       <c r="B265" s="10" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="11" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="11" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="11" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="276" spans="2:2" ht="17.649999999999999">
       <c r="B276" s="10" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" s="11" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" s="11" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" s="11" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" s="11" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" s="11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="287" spans="2:2" ht="17.649999999999999">
       <c r="B287" s="10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="11" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" s="11" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" s="11" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" s="11" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="11" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" s="11" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" s="11" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" s="11" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" s="11" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="298" spans="2:2" ht="17.649999999999999">
       <c r="B298" s="10" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="11" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="11" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="11" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" s="11" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" s="11" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="11" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="11" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="11" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="309" spans="2:2" ht="17.649999999999999">
       <c r="B309" s="10" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" s="11" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" s="11" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" s="11" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" s="11" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" s="11" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="11" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="11" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="11" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="320" spans="2:2" ht="17.649999999999999">
       <c r="B320" s="10" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="11" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" s="11" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" s="11" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" s="11" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" s="11" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" s="11" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" s="11" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" s="11" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" s="11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -48707,252 +48679,252 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999">
       <c r="B2" s="10" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.649999999999999">
       <c r="B11" s="10" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="17.649999999999999">
       <c r="B20" s="10" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="17.649999999999999">
       <c r="B29" s="10" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="17.649999999999999">
       <c r="B38" s="10" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="17.649999999999999">
       <c r="B47" s="10" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="17.649999999999999">
       <c r="B56" s="10" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="17.649999999999999">
       <c r="B65" s="10" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="17.649999999999999">
       <c r="B74" s="10" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="17.649999999999999">
       <c r="B83" s="10" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="12" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -48980,20 +48952,20 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="C3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -49049,29 +49021,29 @@
     </row>
     <row r="13" spans="2:9" s="3" customFormat="1">
       <c r="B13" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>142</v>
@@ -49079,24 +49051,24 @@
     </row>
     <row r="19" spans="2:7">
       <c r="D19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="D20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
       <c r="D21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F21" t="e" vm="1">
         <v>#VALUE!</v>
@@ -49107,7 +49079,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="E22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F22" t="e" vm="2">
         <v>#VALUE!</v>
@@ -49118,7 +49090,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="E23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F23" t="e" vm="3">
         <v>#VALUE!</v>
@@ -49129,15 +49101,15 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="C26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -49145,15 +49117,15 @@
     </row>
     <row r="27" spans="2:7">
       <c r="C27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="C28" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F28" s="2">
         <v>45578</v>
@@ -49165,7 +49137,7 @@
     </row>
     <row r="29" spans="2:7">
       <c r="C29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F29" s="2">
         <v>45579</v>
@@ -49177,7 +49149,7 @@
     </row>
     <row r="30" spans="2:7">
       <c r="C30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F30" s="2">
         <v>45580</v>
@@ -49189,7 +49161,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="C31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E31">
         <v>9865471123</v>
@@ -49222,10 +49194,10 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2">
         <v>45584</v>
@@ -49238,13 +49210,13 @@
     <row r="35" spans="2:7">
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -49297,62 +49269,62 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -49396,70 +49368,70 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="E8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="E9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="E10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="E11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -49469,13 +49441,13 @@
       <c r="C13" s="9"/>
       <c r="D13" s="8">
         <f ca="1">NOW()</f>
-        <v>45626.353003009259</v>
+        <v>45626.35641458333</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -49484,10 +49456,10 @@
         <v>45626</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -49496,7 +49468,7 @@
         <v>2024</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -49505,7 +49477,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" t="str">
         <f>TEXT(B13,"MMM")</f>
@@ -49522,7 +49494,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -49531,7 +49503,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -49540,7 +49512,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -49549,7 +49521,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -49572,7 +49544,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26">
@@ -49591,7 +49563,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27">
